--- a/Data/Mercado laboral_consolidado_.xlsx
+++ b/Data/Mercado laboral_consolidado_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\MERCADO LABORAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Estudio\proyecto camara de comercio-20210502T212657Z-001\proyecto camara de comercio\dashboards\Graficas R y Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919FFF71-3139-41C1-A58F-26613790D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EAE1E6-93D6-4FD4-9D14-97E1E3A98220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37952D4E-59ED-440A-B55E-4EDBCC716077}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{37952D4E-59ED-440A-B55E-4EDBCC716077}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="294">
   <si>
     <t>AÑO</t>
   </si>
@@ -913,6 +913,15 @@
   <si>
     <t>Abr - Jun21</t>
   </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
 </sst>
 </file>
 
@@ -1039,7 +1048,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1159,16 +1168,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1179,10 +1191,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1198,7 +1210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1496,12 +1508,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C74347B-6F38-4012-896F-2F49E5BBB1CB}">
   <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="12.140625" style="1"/>
   </cols>
@@ -14942,11 +14954,11 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
@@ -19278,11 +19290,11 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="11.42578125" style="16"/>
   </cols>
@@ -19302,7 +19314,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="44">
         <v>2015</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -19316,7 +19328,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="17" t="s">
         <v>179</v>
       </c>
@@ -19328,7 +19340,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="17" t="s">
         <v>180</v>
       </c>
@@ -19340,7 +19352,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="17" t="s">
         <v>181</v>
       </c>
@@ -19352,7 +19364,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="17" t="s">
         <v>182</v>
       </c>
@@ -19364,7 +19376,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="17" t="s">
         <v>183</v>
       </c>
@@ -19376,7 +19388,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="17" t="s">
         <v>184</v>
       </c>
@@ -19388,7 +19400,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="17" t="s">
         <v>185</v>
       </c>
@@ -19400,7 +19412,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="17" t="s">
         <v>186</v>
       </c>
@@ -19412,7 +19424,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="17" t="s">
         <v>187</v>
       </c>
@@ -19424,7 +19436,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="17" t="s">
         <v>188</v>
       </c>
@@ -19436,7 +19448,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="17" t="s">
         <v>189</v>
       </c>
@@ -19448,7 +19460,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
+      <c r="A14" s="45">
         <v>2016</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -19462,7 +19474,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="17" t="s">
         <v>191</v>
       </c>
@@ -19474,7 +19486,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="17" t="s">
         <v>192</v>
       </c>
@@ -19486,7 +19498,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="17" t="s">
         <v>193</v>
       </c>
@@ -19498,7 +19510,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="17" t="s">
         <v>194</v>
       </c>
@@ -19510,7 +19522,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="17" t="s">
         <v>195</v>
       </c>
@@ -19522,7 +19534,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="17" t="s">
         <v>196</v>
       </c>
@@ -19534,7 +19546,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="17" t="s">
         <v>197</v>
       </c>
@@ -19546,7 +19558,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="17" t="s">
         <v>198</v>
       </c>
@@ -19558,7 +19570,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="17" t="s">
         <v>199</v>
       </c>
@@ -19570,7 +19582,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="17" t="s">
         <v>200</v>
       </c>
@@ -19582,7 +19594,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="17" t="s">
         <v>201</v>
       </c>
@@ -19594,7 +19606,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
+      <c r="A26" s="45">
         <v>2017</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -19608,7 +19620,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="17" t="s">
         <v>203</v>
       </c>
@@ -19620,7 +19632,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="17" t="s">
         <v>204</v>
       </c>
@@ -19632,7 +19644,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="17" t="s">
         <v>205</v>
       </c>
@@ -19644,7 +19656,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="17" t="s">
         <v>206</v>
       </c>
@@ -19656,7 +19668,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="17" t="s">
         <v>207</v>
       </c>
@@ -19668,7 +19680,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="17" t="s">
         <v>208</v>
       </c>
@@ -19680,7 +19692,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="17" t="s">
         <v>209</v>
       </c>
@@ -19692,7 +19704,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="17" t="s">
         <v>210</v>
       </c>
@@ -19704,7 +19716,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="17" t="s">
         <v>211</v>
       </c>
@@ -19716,7 +19728,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="17" t="s">
         <v>212</v>
       </c>
@@ -19728,7 +19740,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="17" t="s">
         <v>213</v>
       </c>
@@ -19740,7 +19752,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
+      <c r="A38" s="42">
         <v>2018</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -19754,7 +19766,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="17" t="s">
         <v>215</v>
       </c>
@@ -19766,7 +19778,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="17" t="s">
         <v>216</v>
       </c>
@@ -19778,7 +19790,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="17" t="s">
         <v>217</v>
       </c>
@@ -19790,7 +19802,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="17" t="s">
         <v>218</v>
       </c>
@@ -19802,7 +19814,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="17" t="s">
         <v>219</v>
       </c>
@@ -19814,7 +19826,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="17" t="s">
         <v>220</v>
       </c>
@@ -19826,7 +19838,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="17" t="s">
         <v>221</v>
       </c>
@@ -19838,7 +19850,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="17" t="s">
         <v>222</v>
       </c>
@@ -19850,7 +19862,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="17" t="s">
         <v>223</v>
       </c>
@@ -19862,7 +19874,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="17" t="s">
         <v>224</v>
       </c>
@@ -19874,7 +19886,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="17" t="s">
         <v>225</v>
       </c>
@@ -19886,7 +19898,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
+      <c r="A50" s="42">
         <v>2019</v>
       </c>
       <c r="B50" s="17" t="s">
@@ -19900,7 +19912,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="17" t="s">
         <v>227</v>
       </c>
@@ -19912,7 +19924,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="17" t="s">
         <v>228</v>
       </c>
@@ -19924,7 +19936,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="17" t="s">
         <v>229</v>
       </c>
@@ -19936,7 +19948,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="17" t="s">
         <v>230</v>
       </c>
@@ -19948,7 +19960,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="17" t="s">
         <v>231</v>
       </c>
@@ -19960,7 +19972,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="17" t="s">
         <v>232</v>
       </c>
@@ -19972,7 +19984,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="17" t="s">
         <v>233</v>
       </c>
@@ -19984,7 +19996,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="17" t="s">
         <v>234</v>
       </c>
@@ -19996,7 +20008,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="17" t="s">
         <v>235</v>
       </c>
@@ -20008,7 +20020,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="17" t="s">
         <v>236</v>
       </c>
@@ -20020,7 +20032,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="17" t="s">
         <v>237</v>
       </c>
@@ -20032,7 +20044,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="43">
+      <c r="A62" s="42">
         <v>2020</v>
       </c>
       <c r="B62" s="17" t="s">
@@ -20046,7 +20058,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="17" t="s">
         <v>239</v>
       </c>
@@ -20058,7 +20070,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="17" t="s">
         <v>240</v>
       </c>
@@ -20070,7 +20082,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="17" t="s">
         <v>241</v>
       </c>
@@ -20082,7 +20094,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="17" t="s">
         <v>242</v>
       </c>
@@ -20094,7 +20106,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="17" t="s">
         <v>243</v>
       </c>
@@ -20106,7 +20118,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="17" t="s">
         <v>244</v>
       </c>
@@ -20118,7 +20130,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="17" t="s">
         <v>245</v>
       </c>
@@ -20130,7 +20142,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="17" t="s">
         <v>246</v>
       </c>
@@ -20142,7 +20154,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="17" t="s">
         <v>247</v>
       </c>
@@ -20154,7 +20166,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="17" t="s">
         <v>248</v>
       </c>
@@ -20166,7 +20178,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="17" t="s">
         <v>249</v>
       </c>
@@ -20178,7 +20190,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
+      <c r="A74" s="42">
         <v>2021</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -20192,7 +20204,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="33" t="s">
         <v>284</v>
       </c>
@@ -20204,7 +20216,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="33" t="s">
         <v>285</v>
       </c>
@@ -20216,7 +20228,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="43"/>
       <c r="B77" s="39" t="s">
         <v>288</v>
       </c>
@@ -20246,12 +20258,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88413D4-033B-4184-9FB2-DE1F8E1CDA71}">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="11.42578125" style="1"/>
     <col min="17" max="17" width="11.42578125" style="28"/>
@@ -27540,19 +27552,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE720FEF-19E9-4060-B01F-CEB696BFA523}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -27586,9 +27598,12 @@
       <c r="K1" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="L1" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="46">
         <v>2015</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -27621,9 +27636,12 @@
       <c r="K2" s="21">
         <v>16.904333333333334</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="L2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
       <c r="B3" s="16" t="s">
         <v>262</v>
       </c>
@@ -27654,9 +27672,12 @@
       <c r="K3" s="21">
         <v>16.886666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="L3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
       <c r="B4" s="16" t="s">
         <v>263</v>
       </c>
@@ -27687,9 +27708,12 @@
       <c r="K4" s="21">
         <v>18.194666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="L4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
       <c r="B5" s="16" t="s">
         <v>264</v>
       </c>
@@ -27720,9 +27744,12 @@
       <c r="K5" s="21">
         <v>18.656333333333333</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="L5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
       <c r="B6" s="16" t="s">
         <v>265</v>
       </c>
@@ -27753,9 +27780,12 @@
       <c r="K6" s="21">
         <v>20.391999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="L6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
       <c r="B7" s="16" t="s">
         <v>266</v>
       </c>
@@ -27786,9 +27816,12 @@
       <c r="K7" s="21">
         <v>18.647666666666666</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="L7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
       <c r="B8" s="16" t="s">
         <v>267</v>
       </c>
@@ -27819,9 +27852,12 @@
       <c r="K8" s="21">
         <v>18.102333333333334</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="L8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
       <c r="B9" s="16" t="s">
         <v>268</v>
       </c>
@@ -27852,9 +27888,12 @@
       <c r="K9" s="21">
         <v>18.341666666666665</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="L9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
       <c r="B10" s="16" t="s">
         <v>269</v>
       </c>
@@ -27885,9 +27924,12 @@
       <c r="K10" s="21">
         <v>19.078666666666667</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="L10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>270</v>
       </c>
@@ -27918,9 +27960,12 @@
       <c r="K11" s="21">
         <v>18.585000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="L11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
       <c r="B12" s="16" t="s">
         <v>93</v>
       </c>
@@ -27951,9 +27996,12 @@
       <c r="K12" s="21">
         <v>16.196999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="L12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
       <c r="B13" s="16" t="s">
         <v>94</v>
       </c>
@@ -27984,9 +28032,12 @@
       <c r="K13" s="21">
         <v>14.39</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="L13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
         <v>2016</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -28019,9 +28070,12 @@
       <c r="K14" s="21">
         <v>14.827333333333334</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="L14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>96</v>
       </c>
@@ -28052,9 +28106,12 @@
       <c r="K15" s="21">
         <v>16.056000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="L15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
       <c r="B16" s="16" t="s">
         <v>271</v>
       </c>
@@ -28085,9 +28142,12 @@
       <c r="K16" s="21">
         <v>15.221000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="L16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
       <c r="B17" s="16" t="s">
         <v>272</v>
       </c>
@@ -28118,9 +28178,12 @@
       <c r="K17" s="21">
         <v>15.401333333333334</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="L17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>273</v>
       </c>
@@ -28151,9 +28214,12 @@
       <c r="K18" s="21">
         <v>16.763333333333335</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="L18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
       <c r="B19" s="16" t="s">
         <v>195</v>
       </c>
@@ -28184,9 +28250,12 @@
       <c r="K19" s="21">
         <v>17.883333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="L19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
       <c r="B20" s="16" t="s">
         <v>196</v>
       </c>
@@ -28217,9 +28286,12 @@
       <c r="K20" s="21">
         <v>19.880666666666666</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="L20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
       <c r="B21" s="16" t="s">
         <v>197</v>
       </c>
@@ -28250,9 +28322,12 @@
       <c r="K21" s="21">
         <v>19.727333333333334</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="L21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>198</v>
       </c>
@@ -28283,9 +28358,12 @@
       <c r="K22" s="21">
         <v>20.111999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="L22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
       <c r="B23" s="16" t="s">
         <v>199</v>
       </c>
@@ -28316,9 +28394,12 @@
       <c r="K23" s="21">
         <v>18.507666666666665</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="L23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
       <c r="B24" s="16" t="s">
         <v>200</v>
       </c>
@@ -28349,9 +28430,12 @@
       <c r="K24" s="21">
         <v>18.049666666666667</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="L24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>201</v>
       </c>
@@ -28382,9 +28466,12 @@
       <c r="K25" s="21">
         <v>18.297333333333331</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="L25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
         <v>2017</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -28417,9 +28504,12 @@
       <c r="K26" s="21">
         <v>16.945</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="L26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
       <c r="B27" s="16" t="s">
         <v>203</v>
       </c>
@@ -28450,9 +28540,12 @@
       <c r="K27" s="21">
         <v>16.463333333333335</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="L27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
       <c r="B28" s="16" t="s">
         <v>204</v>
       </c>
@@ -28483,9 +28576,12 @@
       <c r="K28" s="21">
         <v>16.533666666666665</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="L28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
       <c r="B29" s="16" t="s">
         <v>205</v>
       </c>
@@ -28516,9 +28612,12 @@
       <c r="K29" s="21">
         <v>19.596333333333334</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="L29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>206</v>
       </c>
@@ -28549,9 +28648,12 @@
       <c r="K30" s="21">
         <v>20.319666666666667</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
       <c r="B31" s="16" t="s">
         <v>207</v>
       </c>
@@ -28582,9 +28684,12 @@
       <c r="K31" s="21">
         <v>18.712</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
       <c r="B32" s="16" t="s">
         <v>208</v>
       </c>
@@ -28615,9 +28720,12 @@
       <c r="K32" s="21">
         <v>16.114000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="L32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
       <c r="B33" s="16" t="s">
         <v>209</v>
       </c>
@@ -28648,9 +28756,12 @@
       <c r="K33" s="21">
         <v>15.199999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
       <c r="B34" s="16" t="s">
         <v>210</v>
       </c>
@@ -28681,9 +28792,12 @@
       <c r="K34" s="21">
         <v>15.363333333333332</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="L34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
       <c r="B35" s="16" t="s">
         <v>211</v>
       </c>
@@ -28714,9 +28828,12 @@
       <c r="K35" s="21">
         <v>14.267333333333333</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
       <c r="B36" s="16" t="s">
         <v>212</v>
       </c>
@@ -28747,9 +28864,12 @@
       <c r="K36" s="21">
         <v>14.072666666666668</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="L36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
       <c r="B37" s="16" t="s">
         <v>213</v>
       </c>
@@ -28780,9 +28900,12 @@
       <c r="K37" s="21">
         <v>16.043666666666667</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="45">
+      <c r="L37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="46">
         <v>2018</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -28815,9 +28938,12 @@
       <c r="K38" s="21">
         <v>17.006333333333334</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
       <c r="B39" s="16" t="s">
         <v>215</v>
       </c>
@@ -28848,9 +28974,12 @@
       <c r="K39" s="21">
         <v>15.534666666666666</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="L39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
       <c r="B40" s="16" t="s">
         <v>216</v>
       </c>
@@ -28881,9 +29010,12 @@
       <c r="K40" s="21">
         <v>12.754666666666667</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="L40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
       <c r="B41" s="16" t="s">
         <v>217</v>
       </c>
@@ -28914,9 +29046,12 @@
       <c r="K41" s="21">
         <v>13.356333333333334</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="L41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
       <c r="B42" s="16" t="s">
         <v>218</v>
       </c>
@@ -28947,9 +29082,12 @@
       <c r="K42" s="21">
         <v>13.207666666666666</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="L42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
       <c r="B43" s="16" t="s">
         <v>219</v>
       </c>
@@ -28980,9 +29118,12 @@
       <c r="K43" s="21">
         <v>16.015000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="L43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
       <c r="B44" s="16" t="s">
         <v>220</v>
       </c>
@@ -29013,9 +29154,12 @@
       <c r="K44" s="21">
         <v>16.814333333333334</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="L44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
       <c r="B45" s="16" t="s">
         <v>221</v>
       </c>
@@ -29046,9 +29190,12 @@
       <c r="K45" s="21">
         <v>18.007333333333332</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="L45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
       <c r="B46" s="16" t="s">
         <v>222</v>
       </c>
@@ -29079,9 +29226,12 @@
       <c r="K46" s="21">
         <v>18.201000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="L46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
       <c r="B47" s="16" t="s">
         <v>223</v>
       </c>
@@ -29112,9 +29262,12 @@
       <c r="K47" s="21">
         <v>18.771666666666665</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="L47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
       <c r="B48" s="16" t="s">
         <v>224</v>
       </c>
@@ -29145,9 +29298,12 @@
       <c r="K48" s="21">
         <v>17.962999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="L48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
       <c r="B49" s="16" t="s">
         <v>274</v>
       </c>
@@ -29178,9 +29334,12 @@
       <c r="K49" s="21">
         <v>15.354666666666668</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="45">
+      <c r="L49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="46">
         <v>2019</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -29213,9 +29372,12 @@
       <c r="K50" s="21">
         <v>14.244333333333335</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="L50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
       <c r="B51" s="16" t="s">
         <v>275</v>
       </c>
@@ -29246,9 +29408,12 @@
       <c r="K51" s="21">
         <v>15.033000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="L51" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
       <c r="B52" s="16" t="s">
         <v>228</v>
       </c>
@@ -29279,9 +29444,12 @@
       <c r="K52" s="21">
         <v>16.614999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="L52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
       <c r="B53" s="16" t="s">
         <v>229</v>
       </c>
@@ -29312,9 +29480,12 @@
       <c r="K53" s="21">
         <v>14.251999999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="L53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
       <c r="B54" s="16" t="s">
         <v>230</v>
       </c>
@@ -29345,9 +29516,12 @@
       <c r="K54" s="21">
         <v>15.000333333333332</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="L54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
       <c r="B55" s="16" t="s">
         <v>231</v>
       </c>
@@ -29378,9 +29552,12 @@
       <c r="K55" s="21">
         <v>12.046666666666667</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="L55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
       <c r="B56" s="16" t="s">
         <v>232</v>
       </c>
@@ -29411,9 +29588,12 @@
       <c r="K56" s="21">
         <v>12.702333333333334</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="L56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
       <c r="B57" s="16" t="s">
         <v>233</v>
       </c>
@@ -29444,9 +29624,12 @@
       <c r="K57" s="21">
         <v>11.528999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="L57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
       <c r="B58" s="16" t="s">
         <v>234</v>
       </c>
@@ -29477,9 +29660,12 @@
       <c r="K58" s="21">
         <v>12.020333333333333</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="L58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
       <c r="B59" s="16" t="s">
         <v>235</v>
       </c>
@@ -29510,9 +29696,12 @@
       <c r="K59" s="21">
         <v>12.271333333333333</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="L59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
       <c r="B60" s="16" t="s">
         <v>276</v>
       </c>
@@ -29543,9 +29732,12 @@
       <c r="K60" s="21">
         <v>14.372333333333335</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="L60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
       <c r="B61" s="16" t="s">
         <v>277</v>
       </c>
@@ -29576,9 +29768,12 @@
       <c r="K61" s="21">
         <v>15.128</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="45">
+      <c r="L61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="46">
         <v>2020</v>
       </c>
       <c r="B62" s="16" t="s">
@@ -29611,9 +29806,12 @@
       <c r="K62" s="21">
         <v>17.231333333333332</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
+      <c r="L62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="46"/>
       <c r="B63" s="16" t="s">
         <v>279</v>
       </c>
@@ -29644,9 +29842,12 @@
       <c r="K63" s="21">
         <v>21.546000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="L63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
       <c r="B64" s="16" t="s">
         <v>280</v>
       </c>
@@ -29677,9 +29878,12 @@
       <c r="K64" s="21">
         <v>31.409666666666666</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="L64" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
       <c r="B65" s="16" t="s">
         <v>281</v>
       </c>
@@ -29710,9 +29914,12 @@
       <c r="K65" s="21">
         <v>38.354666666666667</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="L65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="46"/>
       <c r="B66" s="16" t="s">
         <v>242</v>
       </c>
@@ -29743,9 +29950,12 @@
       <c r="K66" s="21">
         <v>42.252000000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="L66" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
       <c r="B67" s="16" t="s">
         <v>243</v>
       </c>
@@ -29776,9 +29986,12 @@
       <c r="K67" s="21">
         <v>38.229999999999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="L67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
       <c r="B68" s="16" t="s">
         <v>244</v>
       </c>
@@ -29809,9 +30022,12 @@
       <c r="K68" s="21">
         <v>35.245333333333328</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="L68" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
       <c r="B69" s="16" t="s">
         <v>245</v>
       </c>
@@ -29842,9 +30058,12 @@
       <c r="K69" s="21">
         <v>29.260333333333335</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="L69" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="46"/>
       <c r="B70" s="16" t="s">
         <v>246</v>
       </c>
@@ -29875,9 +30094,12 @@
       <c r="K70" s="21">
         <v>26.431999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="L70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="46"/>
       <c r="B71" s="16" t="s">
         <v>247</v>
       </c>
@@ -29908,9 +30130,12 @@
       <c r="K71" s="21">
         <v>24.184666666666669</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="L71" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="46"/>
       <c r="B72" s="16" t="s">
         <v>177</v>
       </c>
@@ -29941,9 +30166,12 @@
       <c r="K72" s="21">
         <v>23.189666666666668</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="L72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="46"/>
       <c r="B73" s="16" t="s">
         <v>154</v>
       </c>
@@ -29974,9 +30202,12 @@
       <c r="K73" s="21">
         <v>23.642666666666667</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="45">
+      <c r="L73" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="46">
         <v>2021</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -30009,9 +30240,12 @@
       <c r="K74" s="21">
         <v>21.338333333333328</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="L74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="46"/>
       <c r="B75" s="22" t="s">
         <v>284</v>
       </c>
@@ -30042,9 +30276,12 @@
       <c r="K75" s="25">
         <v>20.533000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="L75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="46"/>
       <c r="B76" s="22" t="s">
         <v>286</v>
       </c>
@@ -30075,9 +30312,12 @@
       <c r="K76" s="25">
         <v>19.117666666666665</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="L76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="46"/>
       <c r="B77" s="40" t="s">
         <v>290</v>
       </c>
@@ -30108,9 +30348,2762 @@
       <c r="K77" s="25">
         <v>21.483000000000001</v>
       </c>
+      <c r="L77" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="47">
+        <v>2015</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="21">
+        <v>80.718039402267308</v>
+      </c>
+      <c r="D78" s="21">
+        <v>49.370404941248367</v>
+      </c>
+      <c r="E78" s="21">
+        <v>43.798058699866587</v>
+      </c>
+      <c r="F78" s="21">
+        <v>11.286814941082564</v>
+      </c>
+      <c r="G78" s="21">
+        <v>494.62466666666666</v>
+      </c>
+      <c r="H78" s="21">
+        <v>399.25133333333332</v>
+      </c>
+      <c r="I78" s="21">
+        <v>197.11199999999999</v>
+      </c>
+      <c r="J78" s="21">
+        <v>174.86433333333335</v>
+      </c>
+      <c r="K78" s="21">
+        <v>22.247666666666664</v>
+      </c>
+      <c r="L78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="B79" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="21">
+        <v>80.74769752787202</v>
+      </c>
+      <c r="D79" s="21">
+        <v>50.6915992576251</v>
+      </c>
+      <c r="E79" s="21">
+        <v>44.418347932372512</v>
+      </c>
+      <c r="F79" s="21">
+        <v>12.375327306938249</v>
+      </c>
+      <c r="G79" s="21">
+        <v>495.12000000000006</v>
+      </c>
+      <c r="H79" s="21">
+        <v>399.798</v>
+      </c>
+      <c r="I79" s="21">
+        <v>202.66399999999999</v>
+      </c>
+      <c r="J79" s="21">
+        <v>177.58366666666666</v>
+      </c>
+      <c r="K79" s="21">
+        <v>25.080333333333332</v>
+      </c>
+      <c r="L79" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="B80" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="21">
+        <v>80.777203257369308</v>
+      </c>
+      <c r="D80" s="21">
+        <v>51.093518818415184</v>
+      </c>
+      <c r="E80" s="21">
+        <v>45.857434154488928</v>
+      </c>
+      <c r="F80" s="21">
+        <v>10.248040818122412</v>
+      </c>
+      <c r="G80" s="21">
+        <v>495.61466666666666</v>
+      </c>
+      <c r="H80" s="21">
+        <v>400.34366666666665</v>
+      </c>
+      <c r="I80" s="21">
+        <v>204.54966666666667</v>
+      </c>
+      <c r="J80" s="21">
+        <v>183.58733333333331</v>
+      </c>
+      <c r="K80" s="21">
+        <v>20.962333333333333</v>
+      </c>
+      <c r="L80" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="46"/>
+      <c r="B81" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="21">
+        <v>80.806624355147989</v>
+      </c>
+      <c r="D81" s="21">
+        <v>51.774391227489588</v>
+      </c>
+      <c r="E81" s="21">
+        <v>46.081123104835427</v>
+      </c>
+      <c r="F81" s="21">
+        <v>10.996462027420492</v>
+      </c>
+      <c r="G81" s="21">
+        <v>496.10866666666669</v>
+      </c>
+      <c r="H81" s="21">
+        <v>400.88866666666667</v>
+      </c>
+      <c r="I81" s="21">
+        <v>207.55766666666668</v>
+      </c>
+      <c r="J81" s="21">
+        <v>184.73400000000001</v>
+      </c>
+      <c r="K81" s="21">
+        <v>22.824000000000002</v>
+      </c>
+      <c r="L81" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="46"/>
+      <c r="B82" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" s="21">
+        <v>80.835945523254665</v>
+      </c>
+      <c r="D82" s="21">
+        <v>51.749229013984866</v>
+      </c>
+      <c r="E82" s="21">
+        <v>46.295945701327405</v>
+      </c>
+      <c r="F82" s="21">
+        <v>10.53822344384059</v>
+      </c>
+      <c r="G82" s="21">
+        <v>496.6033333333333</v>
+      </c>
+      <c r="H82" s="21">
+        <v>401.43400000000003</v>
+      </c>
+      <c r="I82" s="21">
+        <v>207.739</v>
+      </c>
+      <c r="J82" s="21">
+        <v>185.84766666666667</v>
+      </c>
+      <c r="K82" s="21">
+        <v>21.891999999999999</v>
+      </c>
+      <c r="L82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
+      <c r="B83" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" s="21">
+        <v>80.865221166838225</v>
+      </c>
+      <c r="D83" s="21">
+        <v>52.894134777961398</v>
+      </c>
+      <c r="E83" s="21">
+        <v>46.640999254522825</v>
+      </c>
+      <c r="F83" s="21">
+        <v>11.822139586217277</v>
+      </c>
+      <c r="G83" s="21">
+        <v>497.09833333333336</v>
+      </c>
+      <c r="H83" s="21">
+        <v>401.97966666666667</v>
+      </c>
+      <c r="I83" s="21">
+        <v>212.62366666666665</v>
+      </c>
+      <c r="J83" s="21">
+        <v>187.48733333333334</v>
+      </c>
+      <c r="K83" s="21">
+        <v>25.136666666666667</v>
+      </c>
+      <c r="L83" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="46"/>
+      <c r="B84" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="21">
+        <v>80.894422769804621</v>
+      </c>
+      <c r="D84" s="21">
+        <v>52.986264252690709</v>
+      </c>
+      <c r="E84" s="21">
+        <v>47.315827784351988</v>
+      </c>
+      <c r="F84" s="21">
+        <v>10.701710241915695</v>
+      </c>
+      <c r="G84" s="21">
+        <v>497.59466666666668</v>
+      </c>
+      <c r="H84" s="21">
+        <v>402.52633333333341</v>
+      </c>
+      <c r="I84" s="21">
+        <v>213.28366666666668</v>
+      </c>
+      <c r="J84" s="21">
+        <v>190.45866666666666</v>
+      </c>
+      <c r="K84" s="21">
+        <v>22.824999999999999</v>
+      </c>
+      <c r="L84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
+      <c r="B85" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="21">
+        <v>80.923633097834198</v>
+      </c>
+      <c r="D85" s="21">
+        <v>52.501612609781525</v>
+      </c>
+      <c r="E85" s="21">
+        <v>47.364747523196776</v>
+      </c>
+      <c r="F85" s="21">
+        <v>9.7840468764767046</v>
+      </c>
+      <c r="G85" s="21">
+        <v>498.09099999999995</v>
+      </c>
+      <c r="H85" s="21">
+        <v>403.07333333333327</v>
+      </c>
+      <c r="I85" s="21">
+        <v>211.62</v>
+      </c>
+      <c r="J85" s="21">
+        <v>190.91466666666665</v>
+      </c>
+      <c r="K85" s="21">
+        <v>20.705000000000002</v>
+      </c>
+      <c r="L85" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
+      <c r="B86" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="21">
+        <v>80.95261017112324</v>
+      </c>
+      <c r="D86" s="21">
+        <v>51.546504137555139</v>
+      </c>
+      <c r="E86" s="21">
+        <v>46.985778702740213</v>
+      </c>
+      <c r="F86" s="21">
+        <v>8.8477880529867523</v>
+      </c>
+      <c r="G86" s="21">
+        <v>498.58800000000002</v>
+      </c>
+      <c r="H86" s="21">
+        <v>403.61999999999995</v>
+      </c>
+      <c r="I86" s="21">
+        <v>208.05200000000002</v>
+      </c>
+      <c r="J86" s="21">
+        <v>189.64400000000001</v>
+      </c>
+      <c r="K86" s="21">
+        <v>18.407999999999998</v>
+      </c>
+      <c r="L86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
+      <c r="B87" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" s="21">
+        <v>80.981516830143718</v>
+      </c>
+      <c r="D87" s="21">
+        <v>50.168536221473168</v>
+      </c>
+      <c r="E87" s="21">
+        <v>45.229892973107603</v>
+      </c>
+      <c r="F87" s="21">
+        <v>9.8441047324233555</v>
+      </c>
+      <c r="G87" s="21">
+        <v>499.08466666666664</v>
+      </c>
+      <c r="H87" s="21">
+        <v>404.16633333333334</v>
+      </c>
+      <c r="I87" s="21">
+        <v>202.76433333333333</v>
+      </c>
+      <c r="J87" s="21">
+        <v>182.804</v>
+      </c>
+      <c r="K87" s="21">
+        <v>19.960333333333335</v>
+      </c>
+      <c r="L87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
+      <c r="B88" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="21">
+        <v>81.010245238516234</v>
+      </c>
+      <c r="D88" s="21">
+        <v>50.221103549269976</v>
+      </c>
+      <c r="E88" s="21">
+        <v>44.522735078496083</v>
+      </c>
+      <c r="F88" s="21">
+        <v>11.346561640533134</v>
+      </c>
+      <c r="G88" s="21">
+        <v>499.58166666666665</v>
+      </c>
+      <c r="H88" s="21">
+        <v>404.71233333333333</v>
+      </c>
+      <c r="I88" s="21">
+        <v>203.251</v>
+      </c>
+      <c r="J88" s="21">
+        <v>180.18899999999999</v>
+      </c>
+      <c r="K88" s="21">
+        <v>23.062000000000001</v>
+      </c>
+      <c r="L88" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="46">
+        <v>2016</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="21">
+        <v>81.039037217502582</v>
+      </c>
+      <c r="D89" s="21">
+        <v>51.070180691179957</v>
+      </c>
+      <c r="E89" s="21">
+        <v>44.673689890242933</v>
+      </c>
+      <c r="F89" s="21">
+        <v>12.524903406190054</v>
+      </c>
+      <c r="G89" s="21">
+        <v>500.07833333333338</v>
+      </c>
+      <c r="H89" s="21">
+        <v>405.25866666666667</v>
+      </c>
+      <c r="I89" s="21">
+        <v>206.96633333333332</v>
+      </c>
+      <c r="J89" s="21">
+        <v>181.04399999999998</v>
+      </c>
+      <c r="K89" s="21">
+        <v>25.922333333333331</v>
+      </c>
+      <c r="L89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
+      <c r="B90" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="21">
+        <v>81.067680257943721</v>
+      </c>
+      <c r="D90" s="21">
+        <v>51.345230702506626</v>
+      </c>
+      <c r="E90" s="21">
+        <v>45.562307583628225</v>
+      </c>
+      <c r="F90" s="21">
+        <v>11.262824296933367</v>
+      </c>
+      <c r="G90" s="21">
+        <v>500.5743333333333</v>
+      </c>
+      <c r="H90" s="21">
+        <v>405.80400000000003</v>
+      </c>
+      <c r="I90" s="21">
+        <v>208.36099999999999</v>
+      </c>
+      <c r="J90" s="21">
+        <v>184.89366666666669</v>
+      </c>
+      <c r="K90" s="21">
+        <v>23.467333333333332</v>
+      </c>
+      <c r="L90" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
+      <c r="B91" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="21">
+        <v>81.096174916462047</v>
+      </c>
+      <c r="D91" s="21">
+        <v>49.775685064948377</v>
+      </c>
+      <c r="E91" s="21">
+        <v>44.297380326403044</v>
+      </c>
+      <c r="F91" s="21">
+        <v>11.005985616063599</v>
+      </c>
+      <c r="G91" s="21">
+        <v>501.06966666666671</v>
+      </c>
+      <c r="H91" s="21">
+        <v>406.34833333333336</v>
+      </c>
+      <c r="I91" s="21">
+        <v>202.26266666666666</v>
+      </c>
+      <c r="J91" s="21">
+        <v>180.00166666666667</v>
+      </c>
+      <c r="K91" s="21">
+        <v>22.260999999999996</v>
+      </c>
+      <c r="L91" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
+      <c r="B92" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" s="21">
+        <v>81.124455287556998</v>
+      </c>
+      <c r="D92" s="21">
+        <v>47.81677991011523</v>
+      </c>
+      <c r="E92" s="21">
+        <v>42.740485993803425</v>
+      </c>
+      <c r="F92" s="21">
+        <v>10.615963692869638</v>
+      </c>
+      <c r="G92" s="21">
+        <v>501.56433333333331</v>
+      </c>
+      <c r="H92" s="21">
+        <v>406.89133333333331</v>
+      </c>
+      <c r="I92" s="21">
+        <v>194.56233333333333</v>
+      </c>
+      <c r="J92" s="21">
+        <v>173.90733333333333</v>
+      </c>
+      <c r="K92" s="21">
+        <v>20.654666666666667</v>
+      </c>
+      <c r="L92" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="46"/>
+      <c r="B93" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" s="21">
+        <v>81.152547144193534</v>
+      </c>
+      <c r="D93" s="21">
+        <v>47.937619293447362</v>
+      </c>
+      <c r="E93" s="21">
+        <v>42.626079828127445</v>
+      </c>
+      <c r="F93" s="21">
+        <v>11.079936239423013</v>
+      </c>
+      <c r="G93" s="21">
+        <v>502.05900000000003</v>
+      </c>
+      <c r="H93" s="21">
+        <v>407.43366666666662</v>
+      </c>
+      <c r="I93" s="21">
+        <v>195.31399999999999</v>
+      </c>
+      <c r="J93" s="21">
+        <v>173.673</v>
+      </c>
+      <c r="K93" s="21">
+        <v>21.640666666666664</v>
+      </c>
+      <c r="L93" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="46"/>
+      <c r="B94" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="21">
+        <v>81.180583698855386</v>
+      </c>
+      <c r="D94" s="21">
+        <v>48.288624821067899</v>
+      </c>
+      <c r="E94" s="21">
+        <v>43.146247164865898</v>
+      </c>
+      <c r="F94" s="21">
+        <v>10.649083445851057</v>
+      </c>
+      <c r="G94" s="21">
+        <v>502.55366666666669</v>
+      </c>
+      <c r="H94" s="21">
+        <v>407.97600000000006</v>
+      </c>
+      <c r="I94" s="21">
+        <v>197.006</v>
+      </c>
+      <c r="J94" s="21">
+        <v>176.02633333333333</v>
+      </c>
+      <c r="K94" s="21">
+        <v>20.979333333333333</v>
+      </c>
+      <c r="L94" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="46"/>
+      <c r="B95" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="21">
+        <v>81.20848640023749</v>
+      </c>
+      <c r="D95" s="21">
+        <v>49.527682605321843</v>
+      </c>
+      <c r="E95" s="21">
+        <v>43.680607856208582</v>
+      </c>
+      <c r="F95" s="21">
+        <v>11.8055052159186</v>
+      </c>
+      <c r="G95" s="21">
+        <v>503.048</v>
+      </c>
+      <c r="H95" s="21">
+        <v>408.51766666666668</v>
+      </c>
+      <c r="I95" s="21">
+        <v>202.32933333333335</v>
+      </c>
+      <c r="J95" s="21">
+        <v>178.44299999999998</v>
+      </c>
+      <c r="K95" s="21">
+        <v>23.885999999999999</v>
+      </c>
+      <c r="L95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="46"/>
+      <c r="B96" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="21">
+        <v>81.236243276789409</v>
+      </c>
+      <c r="D96" s="21">
+        <v>49.372012956587277</v>
+      </c>
+      <c r="E96" s="21">
+        <v>42.995742253549821</v>
+      </c>
+      <c r="F96" s="21">
+        <v>12.914582236445771</v>
+      </c>
+      <c r="G96" s="21">
+        <v>503.54166666666669</v>
+      </c>
+      <c r="H96" s="21">
+        <v>409.05833333333334</v>
+      </c>
+      <c r="I96" s="21">
+        <v>201.96033333333332</v>
+      </c>
+      <c r="J96" s="21">
+        <v>175.87766666666667</v>
+      </c>
+      <c r="K96" s="21">
+        <v>26.082333333333334</v>
+      </c>
+      <c r="L96" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="46"/>
+      <c r="B97" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="21">
+        <v>81.263631686222226</v>
+      </c>
+      <c r="D97" s="21">
+        <v>50.605270717755445</v>
+      </c>
+      <c r="E97" s="21">
+        <v>43.416811185647006</v>
+      </c>
+      <c r="F97" s="21">
+        <v>14.20480129681329</v>
+      </c>
+      <c r="G97" s="21">
+        <v>504.03400000000005</v>
+      </c>
+      <c r="H97" s="21">
+        <v>409.59633333333335</v>
+      </c>
+      <c r="I97" s="21">
+        <v>207.27733333333333</v>
+      </c>
+      <c r="J97" s="21">
+        <v>177.83366666666666</v>
+      </c>
+      <c r="K97" s="21">
+        <v>29.443333333333339</v>
+      </c>
+      <c r="L97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
+      <c r="B98" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="21">
+        <v>81.290917199345927</v>
+      </c>
+      <c r="D98" s="21">
+        <v>50.446806279914078</v>
+      </c>
+      <c r="E98" s="21">
+        <v>44.037909653697703</v>
+      </c>
+      <c r="F98" s="21">
+        <v>12.704266332848393</v>
+      </c>
+      <c r="G98" s="21">
+        <v>504.52499999999992</v>
+      </c>
+      <c r="H98" s="21">
+        <v>410.13299999999998</v>
+      </c>
+      <c r="I98" s="21">
+        <v>206.899</v>
+      </c>
+      <c r="J98" s="21">
+        <v>180.614</v>
+      </c>
+      <c r="K98" s="21">
+        <v>26.285</v>
+      </c>
+      <c r="L98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="46"/>
+      <c r="B99" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="21">
+        <v>81.317988635366063</v>
+      </c>
+      <c r="D99" s="21">
+        <v>49.99541399454062</v>
+      </c>
+      <c r="E99" s="21">
+        <v>43.9129097271205</v>
+      </c>
+      <c r="F99" s="21">
+        <v>12.166124413099809</v>
+      </c>
+      <c r="G99" s="21">
+        <v>505.017</v>
+      </c>
+      <c r="H99" s="21">
+        <v>410.66966666666667</v>
+      </c>
+      <c r="I99" s="21">
+        <v>205.316</v>
+      </c>
+      <c r="J99" s="21">
+        <v>180.33699999999999</v>
+      </c>
+      <c r="K99" s="21">
+        <v>24.979000000000003</v>
+      </c>
+      <c r="L99" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="46"/>
+      <c r="B100" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="21">
+        <v>81.345053147996737</v>
+      </c>
+      <c r="D100" s="21">
+        <v>48.630527863659132</v>
+      </c>
+      <c r="E100" s="21">
+        <v>43.173067102027048</v>
+      </c>
+      <c r="F100" s="21">
+        <v>11.222293899282063</v>
+      </c>
+      <c r="G100" s="21">
+        <v>505.50666666666666</v>
+      </c>
+      <c r="H100" s="21">
+        <v>411.2046666666667</v>
+      </c>
+      <c r="I100" s="21">
+        <v>199.971</v>
+      </c>
+      <c r="J100" s="21">
+        <v>177.52966666666666</v>
+      </c>
+      <c r="K100" s="21">
+        <v>22.441333333333333</v>
+      </c>
+      <c r="L100" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="46"/>
+      <c r="B101" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="21">
+        <v>81.371879920157568</v>
+      </c>
+      <c r="D101" s="21">
+        <v>48.261803391630785</v>
+      </c>
+      <c r="E101" s="21">
+        <v>42.146278751021072</v>
+      </c>
+      <c r="F101" s="21">
+        <v>12.671562624761378</v>
+      </c>
+      <c r="G101" s="21">
+        <v>505.99666666666667</v>
+      </c>
+      <c r="H101" s="21">
+        <v>411.73899999999998</v>
+      </c>
+      <c r="I101" s="21">
+        <v>198.71266666666668</v>
+      </c>
+      <c r="J101" s="21">
+        <v>173.53266666666664</v>
+      </c>
+      <c r="K101" s="21">
+        <v>25.179999999999996</v>
+      </c>
+      <c r="L101" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="46">
+        <v>2017</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="21">
+        <v>81.398581332504961</v>
+      </c>
+      <c r="D102" s="21">
+        <v>48.437275127868865</v>
+      </c>
+      <c r="E102" s="21">
+        <v>41.81429058856061</v>
+      </c>
+      <c r="F102" s="21">
+        <v>13.673154959529544</v>
+      </c>
+      <c r="G102" s="21">
+        <v>506.48466666666667</v>
+      </c>
+      <c r="H102" s="21">
+        <v>412.2713333333333</v>
+      </c>
+      <c r="I102" s="21">
+        <v>199.69300000000001</v>
+      </c>
+      <c r="J102" s="21">
+        <v>172.38833333333332</v>
+      </c>
+      <c r="K102" s="21">
+        <v>27.304333333333332</v>
+      </c>
+      <c r="L102" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="46"/>
+      <c r="B103" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="21">
+        <v>81.424951443926773</v>
+      </c>
+      <c r="D103" s="21">
+        <v>46.828513981637748</v>
+      </c>
+      <c r="E103" s="21">
+        <v>40.809828732003133</v>
+      </c>
+      <c r="F103" s="21">
+        <v>12.852262949430015</v>
+      </c>
+      <c r="G103" s="21">
+        <v>506.97399999999999</v>
+      </c>
+      <c r="H103" s="21">
+        <v>412.80333333333334</v>
+      </c>
+      <c r="I103" s="21">
+        <v>193.30966666666669</v>
+      </c>
+      <c r="J103" s="21">
+        <v>168.46433333333334</v>
+      </c>
+      <c r="K103" s="21">
+        <v>24.844666666666669</v>
+      </c>
+      <c r="L103" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="46"/>
+      <c r="B104" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="21">
+        <v>81.451209779392215</v>
+      </c>
+      <c r="D104" s="21">
+        <v>45.839398516614111</v>
+      </c>
+      <c r="E104" s="21">
+        <v>39.91504845560609</v>
+      </c>
+      <c r="F104" s="21">
+        <v>12.923792550786493</v>
+      </c>
+      <c r="G104" s="21">
+        <v>507.46166666666664</v>
+      </c>
+      <c r="H104" s="21">
+        <v>413.33366666666666</v>
+      </c>
+      <c r="I104" s="21">
+        <v>189.46966666666671</v>
+      </c>
+      <c r="J104" s="21">
+        <v>164.98233333333334</v>
+      </c>
+      <c r="K104" s="21">
+        <v>24.486666666666668</v>
+      </c>
+      <c r="L104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
+      <c r="B105" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="21">
+        <v>81.477225672198514</v>
+      </c>
+      <c r="D105" s="21">
+        <v>45.910509550292566</v>
+      </c>
+      <c r="E105" s="21">
+        <v>39.893603740380243</v>
+      </c>
+      <c r="F105" s="21">
+        <v>13.105726485830271</v>
+      </c>
+      <c r="G105" s="21">
+        <v>507.94766666666669</v>
+      </c>
+      <c r="H105" s="21">
+        <v>413.86166666666668</v>
+      </c>
+      <c r="I105" s="21">
+        <v>190.006</v>
+      </c>
+      <c r="J105" s="21">
+        <v>165.10433333333333</v>
+      </c>
+      <c r="K105" s="21">
+        <v>24.901666666666667</v>
+      </c>
+      <c r="L105" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
+      <c r="B106" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="21">
+        <v>81.503114141480353</v>
+      </c>
+      <c r="D106" s="21">
+        <v>47.44937727594121</v>
+      </c>
+      <c r="E106" s="21">
+        <v>40.563013657859329</v>
+      </c>
+      <c r="F106" s="21">
+        <v>14.513244331426147</v>
+      </c>
+      <c r="G106" s="21">
+        <v>508.43333333333334</v>
+      </c>
+      <c r="H106" s="21">
+        <v>414.38899999999995</v>
+      </c>
+      <c r="I106" s="21">
+        <v>196.625</v>
+      </c>
+      <c r="J106" s="21">
+        <v>168.08866666666668</v>
+      </c>
+      <c r="K106" s="21">
+        <v>28.536666666666665</v>
+      </c>
+      <c r="L106" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
+      <c r="B107" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="21">
+        <v>81.528667009441591</v>
+      </c>
+      <c r="D107" s="21">
+        <v>48.306598229514044</v>
+      </c>
+      <c r="E107" s="21">
+        <v>41.262332867105904</v>
+      </c>
+      <c r="F107" s="21">
+        <v>14.582574551840782</v>
+      </c>
+      <c r="G107" s="21">
+        <v>508.91833333333335</v>
+      </c>
+      <c r="H107" s="21">
+        <v>414.91433333333333</v>
+      </c>
+      <c r="I107" s="21">
+        <v>200.43100000000001</v>
+      </c>
+      <c r="J107" s="21">
+        <v>171.20333333333335</v>
+      </c>
+      <c r="K107" s="21">
+        <v>29.227999999999998</v>
+      </c>
+      <c r="L107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
+      <c r="B108" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="21">
+        <v>81.554117854144479</v>
+      </c>
+      <c r="D108" s="21">
+        <v>47.668694772365669</v>
+      </c>
+      <c r="E108" s="21">
+        <v>41.135375453635866</v>
+      </c>
+      <c r="F108" s="21">
+        <v>13.705681160200905</v>
+      </c>
+      <c r="G108" s="21">
+        <v>509.40366666666665</v>
+      </c>
+      <c r="H108" s="21">
+        <v>415.43966666666665</v>
+      </c>
+      <c r="I108" s="21">
+        <v>198.03466666666668</v>
+      </c>
+      <c r="J108" s="21">
+        <v>170.89266666666666</v>
+      </c>
+      <c r="K108" s="21">
+        <v>27.141999999999999</v>
+      </c>
+      <c r="L108" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="46"/>
+      <c r="B109" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="21">
+        <v>81.579423910819344</v>
+      </c>
+      <c r="D109" s="21">
+        <v>46.777071962445319</v>
+      </c>
+      <c r="E109" s="21">
+        <v>41.313596503529567</v>
+      </c>
+      <c r="F109" s="21">
+        <v>11.679814981369651</v>
+      </c>
+      <c r="G109" s="21">
+        <v>509.88633333333331</v>
+      </c>
+      <c r="H109" s="21">
+        <v>415.96233333333333</v>
+      </c>
+      <c r="I109" s="21">
+        <v>194.57500000000002</v>
+      </c>
+      <c r="J109" s="21">
+        <v>171.84900000000002</v>
+      </c>
+      <c r="K109" s="21">
+        <v>22.725999999999999</v>
+      </c>
+      <c r="L109" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="46"/>
+      <c r="B110" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="21">
+        <v>81.604527449129876</v>
+      </c>
+      <c r="D110" s="21">
+        <v>46.303536513236608</v>
+      </c>
+      <c r="E110" s="21">
+        <v>41.60963495167077</v>
+      </c>
+      <c r="F110" s="21">
+        <v>10.137069174127978</v>
+      </c>
+      <c r="G110" s="21">
+        <v>510.36833333333334</v>
+      </c>
+      <c r="H110" s="21">
+        <v>416.48366666666669</v>
+      </c>
+      <c r="I110" s="21">
+        <v>192.84666666666666</v>
+      </c>
+      <c r="J110" s="21">
+        <v>173.29733333333334</v>
+      </c>
+      <c r="K110" s="21">
+        <v>19.549000000000003</v>
+      </c>
+      <c r="L110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="46"/>
+      <c r="B111" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="21">
+        <v>81.629482404466287</v>
+      </c>
+      <c r="D111" s="21">
+        <v>45.660589715038483</v>
+      </c>
+      <c r="E111" s="21">
+        <v>41.601472728856891</v>
+      </c>
+      <c r="F111" s="21">
+        <v>8.8895852553924151</v>
+      </c>
+      <c r="G111" s="21">
+        <v>510.84933333333333</v>
+      </c>
+      <c r="H111" s="21">
+        <v>417.00366666666667</v>
+      </c>
+      <c r="I111" s="21">
+        <v>190.40633333333335</v>
+      </c>
+      <c r="J111" s="21">
+        <v>173.47966666666665</v>
+      </c>
+      <c r="K111" s="21">
+        <v>16.926333333333336</v>
+      </c>
+      <c r="L111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="46"/>
+      <c r="B112" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" s="21">
+        <v>81.654105733483092</v>
+      </c>
+      <c r="D112" s="21">
+        <v>46.326218599433965</v>
+      </c>
+      <c r="E112" s="21">
+        <v>41.703624163217071</v>
+      </c>
+      <c r="F112" s="21">
+        <v>9.978182419786787</v>
+      </c>
+      <c r="G112" s="21">
+        <v>511.3296666666667</v>
+      </c>
+      <c r="H112" s="21">
+        <v>417.5216666666667</v>
+      </c>
+      <c r="I112" s="21">
+        <v>193.42200000000003</v>
+      </c>
+      <c r="J112" s="21">
+        <v>174.12166666666667</v>
+      </c>
+      <c r="K112" s="21">
+        <v>19.3</v>
+      </c>
+      <c r="L112" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="46">
+        <v>2018</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" s="21">
+        <v>81.678605783790715</v>
+      </c>
+      <c r="D113" s="21">
+        <v>46.940915401035149</v>
+      </c>
+      <c r="E113" s="21">
+        <v>42.034275908866555</v>
+      </c>
+      <c r="F113" s="21">
+        <v>10.452798907412001</v>
+      </c>
+      <c r="G113" s="21">
+        <v>511.80966666666671</v>
+      </c>
+      <c r="H113" s="21">
+        <v>418.03899999999999</v>
+      </c>
+      <c r="I113" s="21">
+        <v>196.23133333333331</v>
+      </c>
+      <c r="J113" s="21">
+        <v>175.71966666666665</v>
+      </c>
+      <c r="K113" s="21">
+        <v>20.511666666666667</v>
+      </c>
+      <c r="L113" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="46"/>
+      <c r="B114" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="21">
+        <v>81.702894071441506</v>
+      </c>
+      <c r="D114" s="21">
+        <v>48.660230762369544</v>
+      </c>
+      <c r="E114" s="21">
+        <v>43.34591100804036</v>
+      </c>
+      <c r="F114" s="21">
+        <v>10.921279391956585</v>
+      </c>
+      <c r="G114" s="21">
+        <v>512.2886666666667</v>
+      </c>
+      <c r="H114" s="21">
+        <v>418.55466666666672</v>
+      </c>
+      <c r="I114" s="21">
+        <v>203.66966666666667</v>
+      </c>
+      <c r="J114" s="21">
+        <v>181.42633333333333</v>
+      </c>
+      <c r="K114" s="21">
+        <v>22.243333333333336</v>
+      </c>
+      <c r="L114" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="46"/>
+      <c r="B115" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="21">
+        <v>81.72707758834764</v>
+      </c>
+      <c r="D115" s="21">
+        <v>48.202601642053885</v>
+      </c>
+      <c r="E115" s="21">
+        <v>43.349459038534668</v>
+      </c>
+      <c r="F115" s="21">
+        <v>10.068217146364887</v>
+      </c>
+      <c r="G115" s="21">
+        <v>512.76599999999996</v>
+      </c>
+      <c r="H115" s="21">
+        <v>419.06866666666662</v>
+      </c>
+      <c r="I115" s="21">
+        <v>202.00199999999998</v>
+      </c>
+      <c r="J115" s="21">
+        <v>181.66400000000002</v>
+      </c>
+      <c r="K115" s="21">
+        <v>20.337999999999997</v>
+      </c>
+      <c r="L115" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="46"/>
+      <c r="B116" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" s="21">
+        <v>81.751115619846914</v>
+      </c>
+      <c r="D116" s="21">
+        <v>46.807452508214524</v>
+      </c>
+      <c r="E116" s="21">
+        <v>42.360718303324582</v>
+      </c>
+      <c r="F116" s="21">
+        <v>9.5002257351668238</v>
+      </c>
+      <c r="G116" s="21">
+        <v>513.24233333333325</v>
+      </c>
+      <c r="H116" s="21">
+        <v>419.58133333333336</v>
+      </c>
+      <c r="I116" s="21">
+        <v>196.3953333333333</v>
+      </c>
+      <c r="J116" s="21">
+        <v>177.73766666666666</v>
+      </c>
+      <c r="K116" s="21">
+        <v>18.657999999999998</v>
+      </c>
+      <c r="L116" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="46"/>
+      <c r="B117" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" s="21">
+        <v>81.774855286730499</v>
+      </c>
+      <c r="D117" s="21">
+        <v>44.447635990268793</v>
+      </c>
+      <c r="E117" s="21">
+        <v>39.885056741629207</v>
+      </c>
+      <c r="F117" s="21">
+        <v>10.265066177284428</v>
+      </c>
+      <c r="G117" s="21">
+        <v>513.71699999999998</v>
+      </c>
+      <c r="H117" s="21">
+        <v>420.0913333333333</v>
+      </c>
+      <c r="I117" s="21">
+        <v>186.72066666666669</v>
+      </c>
+      <c r="J117" s="21">
+        <v>167.55366666666666</v>
+      </c>
+      <c r="K117" s="21">
+        <v>19.167000000000002</v>
+      </c>
+      <c r="L117" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="46"/>
+      <c r="B118" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" s="21">
+        <v>81.798615950602084</v>
+      </c>
+      <c r="D118" s="21">
+        <v>44.617115956903014</v>
+      </c>
+      <c r="E118" s="21">
+        <v>40.144000063401236</v>
+      </c>
+      <c r="F118" s="21">
+        <v>10.025560365269875</v>
+      </c>
+      <c r="G118" s="21">
+        <v>514.19166666666661</v>
+      </c>
+      <c r="H118" s="21">
+        <v>420.60166666666663</v>
+      </c>
+      <c r="I118" s="21">
+        <v>187.66033333333334</v>
+      </c>
+      <c r="J118" s="21">
+        <v>168.84633333333332</v>
+      </c>
+      <c r="K118" s="21">
+        <v>18.814</v>
+      </c>
+      <c r="L118" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="46"/>
+      <c r="B119" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="21">
+        <v>81.822197380428548</v>
+      </c>
+      <c r="D119" s="21">
+        <v>45.83081683393636</v>
+      </c>
+      <c r="E119" s="21">
+        <v>41.09151297880441</v>
+      </c>
+      <c r="F119" s="21">
+        <v>10.340867090159831</v>
+      </c>
+      <c r="G119" s="21">
+        <v>514.66433333333327</v>
+      </c>
+      <c r="H119" s="21">
+        <v>421.10966666666667</v>
+      </c>
+      <c r="I119" s="21">
+        <v>192.99799999999996</v>
+      </c>
+      <c r="J119" s="21">
+        <v>173.04033333333334</v>
+      </c>
+      <c r="K119" s="21">
+        <v>19.957666666666665</v>
+      </c>
+      <c r="L119" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="46"/>
+      <c r="B120" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120" s="21">
+        <v>81.845659080761749</v>
+      </c>
+      <c r="D120" s="21">
+        <v>47.103334701083369</v>
+      </c>
+      <c r="E120" s="21">
+        <v>41.84635186278858</v>
+      </c>
+      <c r="F120" s="21">
+        <v>11.160700048842957</v>
+      </c>
+      <c r="G120" s="21">
+        <v>515.13666666666666</v>
+      </c>
+      <c r="H120" s="21">
+        <v>421.61700000000002</v>
+      </c>
+      <c r="I120" s="21">
+        <v>198.59566666666669</v>
+      </c>
+      <c r="J120" s="21">
+        <v>176.43133333333333</v>
+      </c>
+      <c r="K120" s="21">
+        <v>22.164666666666665</v>
+      </c>
+      <c r="L120" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="46"/>
+      <c r="B121" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="21">
+        <v>81.86887817013087</v>
+      </c>
+      <c r="D121" s="21">
+        <v>48.060393330516874</v>
+      </c>
+      <c r="E121" s="21">
+        <v>41.7172774042239</v>
+      </c>
+      <c r="F121" s="21">
+        <v>13.198383227629721</v>
+      </c>
+      <c r="G121" s="21">
+        <v>515.60699999999997</v>
+      </c>
+      <c r="H121" s="21">
+        <v>422.12166666666667</v>
+      </c>
+      <c r="I121" s="21">
+        <v>202.87333333333333</v>
+      </c>
+      <c r="J121" s="21">
+        <v>176.09766666666667</v>
+      </c>
+      <c r="K121" s="21">
+        <v>26.776</v>
+      </c>
+      <c r="L121" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="46"/>
+      <c r="B122" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" s="21">
+        <v>81.891890669920272</v>
+      </c>
+      <c r="D122" s="21">
+        <v>48.027091020085592</v>
+      </c>
+      <c r="E122" s="21">
+        <v>41.40482413867624</v>
+      </c>
+      <c r="F122" s="21">
+        <v>13.788607098106</v>
+      </c>
+      <c r="G122" s="21">
+        <v>516.07633333333331</v>
+      </c>
+      <c r="H122" s="21">
+        <v>422.62466666666666</v>
+      </c>
+      <c r="I122" s="21">
+        <v>202.97433333333333</v>
+      </c>
+      <c r="J122" s="21">
+        <v>174.98699999999999</v>
+      </c>
+      <c r="K122" s="21">
+        <v>27.987333333333336</v>
+      </c>
+      <c r="L122" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="46"/>
+      <c r="B123" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="21">
+        <v>81.914908720146101</v>
+      </c>
+      <c r="D123" s="21">
+        <v>47.506416528409986</v>
+      </c>
+      <c r="E123" s="21">
+        <v>40.578850429107803</v>
+      </c>
+      <c r="F123" s="21">
+        <v>14.582379824753414</v>
+      </c>
+      <c r="G123" s="21">
+        <v>516.54333333333329</v>
+      </c>
+      <c r="H123" s="21">
+        <v>423.12599999999998</v>
+      </c>
+      <c r="I123" s="21">
+        <v>201.01200000000003</v>
+      </c>
+      <c r="J123" s="21">
+        <v>171.69966666666667</v>
+      </c>
+      <c r="K123" s="21">
+        <v>29.312333333333338</v>
+      </c>
+      <c r="L123" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="46"/>
+      <c r="B124" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" s="21">
+        <v>81.937668476862768</v>
+      </c>
+      <c r="D124" s="21">
+        <v>45.60551493181481</v>
+      </c>
+      <c r="E124" s="21">
+        <v>40.037312816267821</v>
+      </c>
+      <c r="F124" s="21">
+        <v>12.209492917407132</v>
+      </c>
+      <c r="G124" s="21">
+        <v>517.0096666666667</v>
+      </c>
+      <c r="H124" s="21">
+        <v>423.62566666666663</v>
+      </c>
+      <c r="I124" s="21">
+        <v>193.19666666666669</v>
+      </c>
+      <c r="J124" s="21">
+        <v>169.60833333333332</v>
+      </c>
+      <c r="K124" s="21">
+        <v>23.588333333333335</v>
+      </c>
+      <c r="L124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="46"/>
+      <c r="B125" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="21">
+        <v>81.960264695897934</v>
+      </c>
+      <c r="D125" s="21">
+        <v>43.99702916604447</v>
+      </c>
+      <c r="E125" s="21">
+        <v>39.07267540102329</v>
+      </c>
+      <c r="F125" s="21">
+        <v>11.192647439733481</v>
+      </c>
+      <c r="G125" s="21">
+        <v>517.47433333333345</v>
+      </c>
+      <c r="H125" s="21">
+        <v>424.12333333333328</v>
+      </c>
+      <c r="I125" s="21">
+        <v>186.60166666666666</v>
+      </c>
+      <c r="J125" s="21">
+        <v>165.71633333333332</v>
+      </c>
+      <c r="K125" s="21">
+        <v>20.885666666666669</v>
+      </c>
+      <c r="L125" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="46">
+        <v>2019</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C126" s="21">
+        <v>81.982686439985301</v>
+      </c>
+      <c r="D126" s="21">
+        <v>43.281108696744369</v>
+      </c>
+      <c r="E126" s="21">
+        <v>39.533432350281338</v>
+      </c>
+      <c r="F126" s="21">
+        <v>8.6589194669704135</v>
+      </c>
+      <c r="G126" s="21">
+        <v>517.93700000000001</v>
+      </c>
+      <c r="H126" s="21">
+        <v>424.61866666666668</v>
+      </c>
+      <c r="I126" s="21">
+        <v>183.77966666666666</v>
+      </c>
+      <c r="J126" s="21">
+        <v>167.8663333333333</v>
+      </c>
+      <c r="K126" s="21">
+        <v>15.913333333333334</v>
+      </c>
+      <c r="L126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="46"/>
+      <c r="B127" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="21">
+        <v>82.004957577667099</v>
+      </c>
+      <c r="D127" s="21">
+        <v>44.558732319379111</v>
+      </c>
+      <c r="E127" s="21">
+        <v>40.139586634748305</v>
+      </c>
+      <c r="F127" s="21">
+        <v>9.9175749726364408</v>
+      </c>
+      <c r="G127" s="21">
+        <v>518.39833333333343</v>
+      </c>
+      <c r="H127" s="21">
+        <v>425.11233333333331</v>
+      </c>
+      <c r="I127" s="21">
+        <v>189.42466666666664</v>
+      </c>
+      <c r="J127" s="21">
+        <v>170.63833333333332</v>
+      </c>
+      <c r="K127" s="21">
+        <v>18.786333333333332</v>
+      </c>
+      <c r="L127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="46"/>
+      <c r="B128" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" s="21">
+        <v>82.027067135902314</v>
+      </c>
+      <c r="D128" s="21">
+        <v>46.30274464838989</v>
+      </c>
+      <c r="E128" s="21">
+        <v>41.528745030591821</v>
+      </c>
+      <c r="F128" s="21">
+        <v>10.31023394829829</v>
+      </c>
+      <c r="G128" s="21">
+        <v>518.85800000000006</v>
+      </c>
+      <c r="H128" s="21">
+        <v>425.60400000000004</v>
+      </c>
+      <c r="I128" s="21">
+        <v>197.06633333333332</v>
+      </c>
+      <c r="J128" s="21">
+        <v>176.74800000000002</v>
+      </c>
+      <c r="K128" s="21">
+        <v>20.318000000000001</v>
+      </c>
+      <c r="L128" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="46"/>
+      <c r="B129" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" s="21">
+        <v>82.048928525122179</v>
+      </c>
+      <c r="D129" s="21">
+        <v>46.251050241027379</v>
+      </c>
+      <c r="E129" s="21">
+        <v>41.600262227778309</v>
+      </c>
+      <c r="F129" s="21">
+        <v>10.055529526383713</v>
+      </c>
+      <c r="G129" s="21">
+        <v>519.31533333333334</v>
+      </c>
+      <c r="H129" s="21">
+        <v>426.09266666666667</v>
+      </c>
+      <c r="I129" s="21">
+        <v>197.07233333333332</v>
+      </c>
+      <c r="J129" s="21">
+        <v>177.25566666666668</v>
+      </c>
+      <c r="K129" s="21">
+        <v>19.816666666666666</v>
+      </c>
+      <c r="L129" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="46"/>
+      <c r="B130" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C130" s="21">
+        <v>82.070618323978778</v>
+      </c>
+      <c r="D130" s="21">
+        <v>45.63632996467242</v>
+      </c>
+      <c r="E130" s="21">
+        <v>41.250585081153389</v>
+      </c>
+      <c r="F130" s="21">
+        <v>9.6102050425923551</v>
+      </c>
+      <c r="G130" s="21">
+        <v>519.77066666666667</v>
+      </c>
+      <c r="H130" s="21">
+        <v>426.57900000000001</v>
+      </c>
+      <c r="I130" s="21">
+        <v>194.67499999999998</v>
+      </c>
+      <c r="J130" s="21">
+        <v>175.96633333333332</v>
+      </c>
+      <c r="K130" s="21">
+        <v>18.708666666666666</v>
+      </c>
+      <c r="L130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="46"/>
+      <c r="B131" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" s="21">
+        <v>82.092137233191849</v>
+      </c>
+      <c r="D131" s="21">
+        <v>44.916636031061763</v>
+      </c>
+      <c r="E131" s="21">
+        <v>40.882648851964845</v>
+      </c>
+      <c r="F131" s="21">
+        <v>8.9810536486019199</v>
+      </c>
+      <c r="G131" s="21">
+        <v>520.22400000000005</v>
+      </c>
+      <c r="H131" s="21">
+        <v>427.06300000000005</v>
+      </c>
+      <c r="I131" s="21">
+        <v>191.82233333333332</v>
+      </c>
+      <c r="J131" s="21">
+        <v>174.59466666666665</v>
+      </c>
+      <c r="K131" s="21">
+        <v>17.227666666666668</v>
+      </c>
+      <c r="L131" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="46"/>
+      <c r="B132" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="21">
+        <v>82.113479181911245</v>
+      </c>
+      <c r="D132" s="21">
+        <v>46.243445149761662</v>
+      </c>
+      <c r="E132" s="21">
+        <v>42.166223049683545</v>
+      </c>
+      <c r="F132" s="21">
+        <v>8.8168649348547365</v>
+      </c>
+      <c r="G132" s="21">
+        <v>520.67700000000002</v>
+      </c>
+      <c r="H132" s="21">
+        <v>427.54599999999999</v>
+      </c>
+      <c r="I132" s="21">
+        <v>197.71199999999999</v>
+      </c>
+      <c r="J132" s="21">
+        <v>180.28</v>
+      </c>
+      <c r="K132" s="21">
+        <v>17.431999999999999</v>
+      </c>
+      <c r="L132" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="46"/>
+      <c r="B133" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133" s="21">
+        <v>82.134669753994544</v>
+      </c>
+      <c r="D133" s="21">
+        <v>46.872033374945588</v>
+      </c>
+      <c r="E133" s="21">
+        <v>43.030363443936778</v>
+      </c>
+      <c r="F133" s="21">
+        <v>8.1960812330840547</v>
+      </c>
+      <c r="G133" s="21">
+        <v>521.12666666666667</v>
+      </c>
+      <c r="H133" s="21">
+        <v>428.02566666666667</v>
+      </c>
+      <c r="I133" s="21">
+        <v>200.62433333333334</v>
+      </c>
+      <c r="J133" s="21">
+        <v>184.18100000000001</v>
+      </c>
+      <c r="K133" s="21">
+        <v>16.443333333333332</v>
+      </c>
+      <c r="L133" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="46"/>
+      <c r="B134" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" s="21">
+        <v>82.155702858778938</v>
+      </c>
+      <c r="D134" s="21">
+        <v>46.731336201196413</v>
+      </c>
+      <c r="E134" s="21">
+        <v>42.892470692565595</v>
+      </c>
+      <c r="F134" s="21">
+        <v>8.2147565652799237</v>
+      </c>
+      <c r="G134" s="21">
+        <v>521.57466666666664</v>
+      </c>
+      <c r="H134" s="21">
+        <v>428.50333333333333</v>
+      </c>
+      <c r="I134" s="21">
+        <v>200.24533333333332</v>
+      </c>
+      <c r="J134" s="21">
+        <v>183.79566666666665</v>
+      </c>
+      <c r="K134" s="21">
+        <v>16.449666666666666</v>
+      </c>
+      <c r="L134" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="46"/>
+      <c r="B135" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" s="21">
+        <v>82.176631576527612</v>
+      </c>
+      <c r="D135" s="21">
+        <v>47.338292395043432</v>
+      </c>
+      <c r="E135" s="21">
+        <v>42.993712978957014</v>
+      </c>
+      <c r="F135" s="21">
+        <v>9.1777273667381234</v>
+      </c>
+      <c r="G135" s="21">
+        <v>522.02066666666667</v>
+      </c>
+      <c r="H135" s="21">
+        <v>428.97899999999998</v>
+      </c>
+      <c r="I135" s="21">
+        <v>203.07133333333334</v>
+      </c>
+      <c r="J135" s="21">
+        <v>184.434</v>
+      </c>
+      <c r="K135" s="21">
+        <v>18.637333333333331</v>
+      </c>
+      <c r="L135" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="46"/>
+      <c r="B136" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="21">
+        <v>82.197426688962665</v>
+      </c>
+      <c r="D136" s="21">
+        <v>48.9185476109162</v>
+      </c>
+      <c r="E136" s="21">
+        <v>43.020351454562388</v>
+      </c>
+      <c r="F136" s="21">
+        <v>12.057336250708056</v>
+      </c>
+      <c r="G136" s="21">
+        <v>522.46566666666661</v>
+      </c>
+      <c r="H136" s="21">
+        <v>429.45333333333332</v>
+      </c>
+      <c r="I136" s="21">
+        <v>210.08233333333331</v>
+      </c>
+      <c r="J136" s="21">
+        <v>184.75233333333333</v>
+      </c>
+      <c r="K136" s="21">
+        <v>25.330333333333332</v>
+      </c>
+      <c r="L136" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="46"/>
+      <c r="B137" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C137" s="21">
+        <v>82.218163737545652</v>
+      </c>
+      <c r="D137" s="21">
+        <v>50.927095375106326</v>
+      </c>
+      <c r="E137" s="21">
+        <v>44.020186372725298</v>
+      </c>
+      <c r="F137" s="21">
+        <v>13.562346235354298</v>
+      </c>
+      <c r="G137" s="21">
+        <v>522.91</v>
+      </c>
+      <c r="H137" s="21">
+        <v>429.92699999999996</v>
+      </c>
+      <c r="I137" s="21">
+        <v>218.94933333333333</v>
+      </c>
+      <c r="J137" s="21">
+        <v>189.25466666666668</v>
+      </c>
+      <c r="K137" s="21">
+        <v>29.694666666666667</v>
+      </c>
+      <c r="L137" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="21">
+        <v>82.238722695241435</v>
+      </c>
+      <c r="D138" s="21">
+        <v>49.277335551435343</v>
+      </c>
+      <c r="E138" s="21">
+        <v>42.274592354053695</v>
+      </c>
+      <c r="F138" s="21">
+        <v>14.210880355071623</v>
+      </c>
+      <c r="G138" s="21">
+        <v>523.35199999999998</v>
+      </c>
+      <c r="H138" s="21">
+        <v>430.39799999999997</v>
+      </c>
+      <c r="I138" s="21">
+        <v>212.08866666666665</v>
+      </c>
+      <c r="J138" s="21">
+        <v>181.94899999999998</v>
+      </c>
+      <c r="K138" s="21">
+        <v>30.139666666666667</v>
+      </c>
+      <c r="L138" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="46"/>
+      <c r="B139" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" s="21">
+        <v>82.259194607552715</v>
+      </c>
+      <c r="D139" s="21">
+        <v>43.997905009024407</v>
+      </c>
+      <c r="E139" s="21">
+        <v>37.170617210025938</v>
+      </c>
+      <c r="F139" s="21">
+        <v>15.517126178084114</v>
+      </c>
+      <c r="G139" s="21">
+        <v>523.79433333333327</v>
+      </c>
+      <c r="H139" s="21">
+        <v>430.86899999999997</v>
+      </c>
+      <c r="I139" s="21">
+        <v>189.57333333333335</v>
+      </c>
+      <c r="J139" s="21">
+        <v>160.15666666666667</v>
+      </c>
+      <c r="K139" s="21">
+        <v>29.416333333333331</v>
+      </c>
+      <c r="L139" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="46"/>
+      <c r="B140" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" s="21">
+        <v>82.279534585908266</v>
+      </c>
+      <c r="D140" s="21">
+        <v>41.095318759582568</v>
+      </c>
+      <c r="E140" s="21">
+        <v>33.12895667441515</v>
+      </c>
+      <c r="F140" s="21">
+        <v>19.385272105005829</v>
+      </c>
+      <c r="G140" s="21">
+        <v>524.23566666666659</v>
+      </c>
+      <c r="H140" s="21">
+        <v>431.33866666666671</v>
+      </c>
+      <c r="I140" s="21">
+        <v>177.26</v>
+      </c>
+      <c r="J140" s="21">
+        <v>142.898</v>
+      </c>
+      <c r="K140" s="21">
+        <v>34.362333333333332</v>
+      </c>
+      <c r="L140" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="46"/>
+      <c r="B141" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" s="21">
+        <v>82.299810550470966</v>
+      </c>
+      <c r="D141" s="21">
+        <v>40.163822430750635</v>
+      </c>
+      <c r="E141" s="21">
+        <v>31.04760052090932</v>
+      </c>
+      <c r="F141" s="21">
+        <v>22.697979792155571</v>
+      </c>
+      <c r="G141" s="21">
+        <v>524.678</v>
+      </c>
+      <c r="H141" s="21">
+        <v>431.80900000000003</v>
+      </c>
+      <c r="I141" s="21">
+        <v>173.43100000000001</v>
+      </c>
+      <c r="J141" s="21">
+        <v>134.06633333333332</v>
+      </c>
+      <c r="K141" s="21">
+        <v>39.365333333333332</v>
+      </c>
+      <c r="L141" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="46"/>
+      <c r="B142" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C142" s="21">
+        <v>82.32004113345522</v>
+      </c>
+      <c r="D142" s="21">
+        <v>41.495731537579516</v>
+      </c>
+      <c r="E142" s="21">
+        <v>31.567806902486584</v>
+      </c>
+      <c r="F142" s="21">
+        <v>23.925542431968363</v>
+      </c>
+      <c r="G142" s="21">
+        <v>525.12</v>
+      </c>
+      <c r="H142" s="21">
+        <v>432.279</v>
+      </c>
+      <c r="I142" s="21">
+        <v>179.37733333333335</v>
+      </c>
+      <c r="J142" s="21">
+        <v>136.46099999999998</v>
+      </c>
+      <c r="K142" s="21">
+        <v>42.917000000000002</v>
+      </c>
+      <c r="L142" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="46"/>
+      <c r="B143" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="21">
+        <v>82.340226487852689</v>
+      </c>
+      <c r="D143" s="21">
+        <v>41.710970031873771</v>
+      </c>
+      <c r="E143" s="21">
+        <v>32.103930996128618</v>
+      </c>
+      <c r="F143" s="21">
+        <v>23.032588442340053</v>
+      </c>
+      <c r="G143" s="21">
+        <v>525.56166666666661</v>
+      </c>
+      <c r="H143" s="21">
+        <v>432.74866666666668</v>
+      </c>
+      <c r="I143" s="21">
+        <v>180.50366666666665</v>
+      </c>
+      <c r="J143" s="21">
+        <v>138.92933333333332</v>
+      </c>
+      <c r="K143" s="21">
+        <v>41.574666666666673</v>
+      </c>
+      <c r="L143" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="46"/>
+      <c r="B144" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C144" s="21">
+        <v>82.360366765969019</v>
+      </c>
+      <c r="D144" s="21">
+        <v>43.311604473190563</v>
+      </c>
+      <c r="E144" s="21">
+        <v>33.325485090647199</v>
+      </c>
+      <c r="F144" s="21">
+        <v>23.056629851430355</v>
+      </c>
+      <c r="G144" s="21">
+        <v>526.00300000000004</v>
+      </c>
+      <c r="H144" s="21">
+        <v>433.21800000000002</v>
+      </c>
+      <c r="I144" s="21">
+        <v>187.6336666666667</v>
+      </c>
+      <c r="J144" s="21">
+        <v>144.37199999999999</v>
+      </c>
+      <c r="K144" s="21">
+        <v>43.262</v>
+      </c>
+      <c r="L144" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="46"/>
+      <c r="B145" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C145" s="21">
+        <v>82.380450963097658</v>
+      </c>
+      <c r="D145" s="21">
+        <v>46.28964075446175</v>
+      </c>
+      <c r="E145" s="21">
+        <v>36.730588904431762</v>
+      </c>
+      <c r="F145" s="21">
+        <v>20.650852793496448</v>
+      </c>
+      <c r="G145" s="21">
+        <v>526.44366666666667</v>
+      </c>
+      <c r="H145" s="21">
+        <v>433.68666666666667</v>
+      </c>
+      <c r="I145" s="21">
+        <v>200.75200000000004</v>
+      </c>
+      <c r="J145" s="21">
+        <v>159.29566666666665</v>
+      </c>
+      <c r="K145" s="21">
+        <v>41.457000000000001</v>
+      </c>
+      <c r="L145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="46"/>
+      <c r="B146" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C146" s="21">
+        <v>82.400512699173888</v>
+      </c>
+      <c r="D146" s="21">
+        <v>47.172404368018526</v>
+      </c>
+      <c r="E146" s="21">
+        <v>38.747469225707825</v>
+      </c>
+      <c r="F146" s="21">
+        <v>17.860206215769729</v>
+      </c>
+      <c r="G146" s="21">
+        <v>526.8846666666667</v>
+      </c>
+      <c r="H146" s="21">
+        <v>434.15566666666672</v>
+      </c>
+      <c r="I146" s="21">
+        <v>204.80166666666665</v>
+      </c>
+      <c r="J146" s="21">
+        <v>168.22433333333333</v>
+      </c>
+      <c r="K146" s="21">
+        <v>36.577999999999996</v>
+      </c>
+      <c r="L146" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="46"/>
+      <c r="B147" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C147" s="21">
+        <v>82.42055199250558</v>
+      </c>
+      <c r="D147" s="21">
+        <v>46.44026459591602</v>
+      </c>
+      <c r="E147" s="21">
+        <v>38.929498609912756</v>
+      </c>
+      <c r="F147" s="21">
+        <v>16.173126371748058</v>
+      </c>
+      <c r="G147" s="21">
+        <v>527.32600000000002</v>
+      </c>
+      <c r="H147" s="21">
+        <v>434.625</v>
+      </c>
+      <c r="I147" s="21">
+        <v>201.84100000000001</v>
+      </c>
+      <c r="J147" s="21">
+        <v>169.19733333333332</v>
+      </c>
+      <c r="K147" s="21">
+        <v>32.643999999999998</v>
+      </c>
+      <c r="L147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="46"/>
+      <c r="B148" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C148" s="21">
+        <v>82.440602132499961</v>
+      </c>
+      <c r="D148" s="21">
+        <v>46.088254920182301</v>
+      </c>
+      <c r="E148" s="21">
+        <v>39.306527989629863</v>
+      </c>
+      <c r="F148" s="21">
+        <v>14.714653315247746</v>
+      </c>
+      <c r="G148" s="21">
+        <v>527.76866666666672</v>
+      </c>
+      <c r="H148" s="21">
+        <v>435.09566666666666</v>
+      </c>
+      <c r="I148" s="21">
+        <v>200.52799999999999</v>
+      </c>
+      <c r="J148" s="21">
+        <v>171.02099999999999</v>
+      </c>
+      <c r="K148" s="21">
+        <v>29.507000000000001</v>
+      </c>
+      <c r="L148" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="46"/>
+      <c r="B149" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" s="21">
+        <v>82.460651871690487</v>
+      </c>
+      <c r="D149" s="21">
+        <v>45.916743067661947</v>
+      </c>
+      <c r="E149" s="21">
+        <v>38.409063428386887</v>
+      </c>
+      <c r="F149" s="21">
+        <v>16.350636255302128</v>
+      </c>
+      <c r="G149" s="21">
+        <v>528.21233333333339</v>
+      </c>
+      <c r="H149" s="21">
+        <v>435.56733333333335</v>
+      </c>
+      <c r="I149" s="21">
+        <v>199.99833333333333</v>
+      </c>
+      <c r="J149" s="21">
+        <v>167.29733333333334</v>
+      </c>
+      <c r="K149" s="21">
+        <v>32.701000000000001</v>
+      </c>
+      <c r="L149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="46">
+        <v>2021</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="21">
+        <v>82.480712143720055</v>
+      </c>
+      <c r="D150" s="21">
+        <v>46.875403727942597</v>
+      </c>
+      <c r="E150" s="21">
+        <v>39.267774158506747</v>
+      </c>
+      <c r="F150" s="21">
+        <v>16.22946996593209</v>
+      </c>
+      <c r="G150" s="21">
+        <v>528.65733333333344</v>
+      </c>
+      <c r="H150" s="21">
+        <v>436.04033333333336</v>
+      </c>
+      <c r="I150" s="21">
+        <v>204.39566666666667</v>
+      </c>
+      <c r="J150" s="21">
+        <v>171.22333333333336</v>
+      </c>
+      <c r="K150" s="21">
+        <v>33.172333333333334</v>
+      </c>
+      <c r="L150" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="46"/>
+      <c r="B151" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C151" s="29">
+        <v>82.500782770358157</v>
+      </c>
+      <c r="D151" s="29">
+        <v>45.998072611535001</v>
+      </c>
+      <c r="E151" s="29">
+        <v>38.410851410872795</v>
+      </c>
+      <c r="F151" s="29">
+        <v>16.494650253583792</v>
+      </c>
+      <c r="G151" s="35">
+        <v>529.10366666666675</v>
+      </c>
+      <c r="H151" s="35">
+        <v>436.5146666666667</v>
+      </c>
+      <c r="I151" s="35">
+        <v>200.78833333333333</v>
+      </c>
+      <c r="J151" s="35">
+        <v>167.66900000000001</v>
+      </c>
+      <c r="K151" s="35">
+        <v>33.119333333333337</v>
+      </c>
+      <c r="L151" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="46"/>
+      <c r="B152" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C152" s="29">
+        <v>82.520800627449404</v>
+      </c>
+      <c r="D152" s="29">
+        <v>45.874047461040298</v>
+      </c>
+      <c r="E152" s="29">
+        <v>38.647871423449814</v>
+      </c>
+      <c r="F152" s="29">
+        <v>15.752209446370525</v>
+      </c>
+      <c r="G152" s="35">
+        <v>529.55133333333333</v>
+      </c>
+      <c r="H152" s="35">
+        <v>436.99</v>
+      </c>
+      <c r="I152" s="35">
+        <v>200.465</v>
+      </c>
+      <c r="J152" s="35">
+        <v>168.88733333333334</v>
+      </c>
+      <c r="K152" s="35">
+        <v>31.577666666666669</v>
+      </c>
+      <c r="L152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="46"/>
+      <c r="B153" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C153" s="29">
+        <v>82.540891483716067</v>
+      </c>
+      <c r="D153" s="29">
+        <v>44.983735916080519</v>
+      </c>
+      <c r="E153" s="29">
+        <v>38.062604341203638</v>
+      </c>
+      <c r="F153" s="29">
+        <v>15.385853206564731</v>
+      </c>
+      <c r="G153" s="25">
+        <v>530.00033333333329</v>
+      </c>
+      <c r="H153" s="25">
+        <v>437.46700000000004</v>
+      </c>
+      <c r="I153" s="25">
+        <v>196.78899999999999</v>
+      </c>
+      <c r="J153" s="25">
+        <v>166.51133333333334</v>
+      </c>
+      <c r="K153" s="25">
+        <v>30.277666666666665</v>
+      </c>
+      <c r="L153" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A62:A73"/>
     <mergeCell ref="A2:A13"/>
@@ -30118,6 +33111,13 @@
     <mergeCell ref="A26:A37"/>
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A138:A149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A78:A88"/>
+    <mergeCell ref="A89:A101"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="A113:A125"/>
+    <mergeCell ref="A126:A137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30128,11 +33128,11 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="11.42578125" style="16"/>
   </cols>
@@ -30173,7 +33173,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="47">
         <v>2015</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -30208,7 +33208,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="16" t="s">
         <v>262</v>
       </c>
@@ -30241,7 +33241,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="16" t="s">
         <v>263</v>
       </c>
@@ -30274,7 +33274,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="16" t="s">
         <v>264</v>
       </c>
@@ -30307,7 +33307,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="16" t="s">
         <v>265</v>
       </c>
@@ -30340,7 +33340,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="16" t="s">
         <v>266</v>
       </c>
@@ -30373,7 +33373,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="16" t="s">
         <v>267</v>
       </c>
@@ -30406,7 +33406,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="16" t="s">
         <v>268</v>
       </c>
@@ -30439,7 +33439,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="16" t="s">
         <v>269</v>
       </c>
@@ -30472,7 +33472,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>270</v>
       </c>
@@ -30505,7 +33505,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="16" t="s">
         <v>93</v>
       </c>
@@ -30538,7 +33538,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="46">
         <v>2016</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -30573,7 +33573,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="16" t="s">
         <v>95</v>
       </c>
@@ -30606,7 +33606,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>96</v>
       </c>
@@ -30639,7 +33639,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="16" t="s">
         <v>271</v>
       </c>
@@ -30672,7 +33672,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="16" t="s">
         <v>272</v>
       </c>
@@ -30705,7 +33705,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>273</v>
       </c>
@@ -30738,7 +33738,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="16" t="s">
         <v>195</v>
       </c>
@@ -30771,7 +33771,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="16" t="s">
         <v>196</v>
       </c>
@@ -30804,7 +33804,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="16" t="s">
         <v>197</v>
       </c>
@@ -30837,7 +33837,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>198</v>
       </c>
@@ -30870,7 +33870,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="16" t="s">
         <v>199</v>
       </c>
@@ -30903,7 +33903,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="16" t="s">
         <v>200</v>
       </c>
@@ -30936,7 +33936,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>201</v>
       </c>
@@ -30969,7 +33969,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="46">
         <v>2017</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -31004,7 +34004,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="16" t="s">
         <v>203</v>
       </c>
@@ -31037,7 +34037,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="16" t="s">
         <v>204</v>
       </c>
@@ -31070,7 +34070,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="16" t="s">
         <v>205</v>
       </c>
@@ -31103,7 +34103,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>206</v>
       </c>
@@ -31136,7 +34136,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="16" t="s">
         <v>207</v>
       </c>
@@ -31169,7 +34169,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="16" t="s">
         <v>208</v>
       </c>
@@ -31202,7 +34202,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="16" t="s">
         <v>209</v>
       </c>
@@ -31235,7 +34235,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="16" t="s">
         <v>210</v>
       </c>
@@ -31268,7 +34268,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="16" t="s">
         <v>211</v>
       </c>
@@ -31301,7 +34301,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="16" t="s">
         <v>212</v>
       </c>
@@ -31334,7 +34334,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="45">
+      <c r="A37" s="46">
         <v>2018</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -31369,7 +34369,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="16" t="s">
         <v>214</v>
       </c>
@@ -31402,7 +34402,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="16" t="s">
         <v>215</v>
       </c>
@@ -31435,7 +34435,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="16" t="s">
         <v>216</v>
       </c>
@@ -31468,7 +34468,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="16" t="s">
         <v>217</v>
       </c>
@@ -31501,7 +34501,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="16" t="s">
         <v>218</v>
       </c>
@@ -31534,7 +34534,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="16" t="s">
         <v>219</v>
       </c>
@@ -31567,7 +34567,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="16" t="s">
         <v>220</v>
       </c>
@@ -31600,7 +34600,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="16" t="s">
         <v>221</v>
       </c>
@@ -31633,7 +34633,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="16" t="s">
         <v>222</v>
       </c>
@@ -31666,7 +34666,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="16" t="s">
         <v>223</v>
       </c>
@@ -31699,7 +34699,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="16" t="s">
         <v>224</v>
       </c>
@@ -31732,7 +34732,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="16" t="s">
         <v>274</v>
       </c>
@@ -31765,7 +34765,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="45">
+      <c r="A50" s="46">
         <v>2019</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -31800,7 +34800,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="16" t="s">
         <v>275</v>
       </c>
@@ -31833,7 +34833,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="16" t="s">
         <v>228</v>
       </c>
@@ -31866,7 +34866,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="16" t="s">
         <v>229</v>
       </c>
@@ -31899,7 +34899,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="16" t="s">
         <v>230</v>
       </c>
@@ -31932,7 +34932,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="16" t="s">
         <v>231</v>
       </c>
@@ -31965,7 +34965,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="16" t="s">
         <v>232</v>
       </c>
@@ -31998,7 +34998,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="16" t="s">
         <v>233</v>
       </c>
@@ -32031,7 +35031,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="16" t="s">
         <v>234</v>
       </c>
@@ -32064,7 +35064,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="16" t="s">
         <v>235</v>
       </c>
@@ -32097,7 +35097,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="16" t="s">
         <v>276</v>
       </c>
@@ -32130,7 +35130,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="16" t="s">
         <v>277</v>
       </c>
@@ -32163,7 +35163,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="45">
+      <c r="A62" s="46">
         <v>2020</v>
       </c>
       <c r="B62" s="16" t="s">
@@ -32198,7 +35198,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="16" t="s">
         <v>279</v>
       </c>
@@ -32231,7 +35231,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="16" t="s">
         <v>280</v>
       </c>
@@ -32264,7 +35264,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="16" t="s">
         <v>281</v>
       </c>
@@ -32297,7 +35297,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="16" t="s">
         <v>242</v>
       </c>
@@ -32330,7 +35330,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="16" t="s">
         <v>243</v>
       </c>
@@ -32363,7 +35363,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="16" t="s">
         <v>244</v>
       </c>
@@ -32396,7 +35396,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="16" t="s">
         <v>245</v>
       </c>
@@ -32429,7 +35429,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="16" t="s">
         <v>246</v>
       </c>
@@ -32462,7 +35462,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="16" t="s">
         <v>247</v>
       </c>
@@ -32495,7 +35495,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="16" t="s">
         <v>177</v>
       </c>
@@ -32528,7 +35528,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="16" t="s">
         <v>154</v>
       </c>
@@ -32561,7 +35561,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="45">
+      <c r="A74" s="46">
         <v>2021</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -32596,7 +35596,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="22" t="s">
         <v>284</v>
       </c>
@@ -32629,7 +35629,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="22" t="s">
         <v>286</v>
       </c>
@@ -32662,7 +35662,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="23" t="s">
         <v>290</v>
       </c>

--- a/Data/Mercado laboral_consolidado_.xlsx
+++ b/Data/Mercado laboral_consolidado_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Estudio\proyecto camara de comercio-20210502T212657Z-001\proyecto camara de comercio\dashboards\Graficas R y Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EAE1E6-93D6-4FD4-9D14-97E1E3A98220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D2A2F-0A9C-4CF1-84C3-CF43C8D6EBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{37952D4E-59ED-440A-B55E-4EDBCC716077}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{37952D4E-59ED-440A-B55E-4EDBCC716077}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="303">
   <si>
     <t>AÑO</t>
   </si>
@@ -922,6 +922,33 @@
   <si>
     <t>Mujeres</t>
   </si>
+  <si>
+    <t>Oct - Dic 15</t>
+  </si>
+  <si>
+    <t>Ene -Mar 15</t>
+  </si>
+  <si>
+    <t>Mar - May 15</t>
+  </si>
+  <si>
+    <t>Abr - Jun 15</t>
+  </si>
+  <si>
+    <t>May - Jul 15</t>
+  </si>
+  <si>
+    <t>Jun - Ago 15</t>
+  </si>
+  <si>
+    <t>Jul - Sep 15</t>
+  </si>
+  <si>
+    <t>Ago - Oct 15</t>
+  </si>
+  <si>
+    <t>Sep - Nov 15</t>
+  </si>
 </sst>
 </file>
 
@@ -1508,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C74347B-6F38-4012-896F-2F49E5BBB1CB}">
   <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -14954,8 +14981,8 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19289,9 +19316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FD635D-07B9-4C34-A986-0B5177813607}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20258,9 +20285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88413D4-033B-4184-9FB2-DE1F8E1CDA71}">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27555,8 +27582,8 @@
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27607,7 +27634,7 @@
         <v>2015</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="C2" s="21">
         <v>78.606961932766666</v>
@@ -27643,7 +27670,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="16" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="C3" s="21">
         <v>78.639065106582677</v>
@@ -27679,7 +27706,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="16" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C4" s="21">
         <v>78.67118547106152</v>
@@ -27715,7 +27742,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="16" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="C5" s="21">
         <v>78.703246069671906</v>
@@ -27751,7 +27778,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="16" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="C6" s="21">
         <v>78.735422175806704</v>
@@ -27787,7 +27814,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="16" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C7" s="21">
         <v>78.76750200146293</v>
@@ -27823,7 +27850,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="16" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C8" s="21">
         <v>78.799686156736087</v>
@@ -27859,7 +27886,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="16" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C9" s="21">
         <v>78.831898127827287</v>
@@ -27895,7 +27922,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="16" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="C10" s="21">
         <v>78.864040013347349</v>
@@ -27931,7 +27958,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C11" s="21">
         <v>78.896138340759606</v>
@@ -33104,6 +33131,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A138:A149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A78:A88"/>
+    <mergeCell ref="A89:A101"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="A113:A125"/>
+    <mergeCell ref="A126:A137"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A62:A73"/>
     <mergeCell ref="A2:A13"/>
@@ -33111,13 +33145,6 @@
     <mergeCell ref="A26:A37"/>
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A50:A61"/>
-    <mergeCell ref="A138:A149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A78:A88"/>
-    <mergeCell ref="A89:A101"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="A113:A125"/>
-    <mergeCell ref="A126:A137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
